--- a/python/N4_test.xlsx
+++ b/python/N4_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2210314\Documents\3tpan\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2210350\Documents\3tpan\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17A7C20-AEAE-45B7-B473-3B1C70224431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D09756-4B38-4DC6-BDAE-EFE3D06EE1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6A4DB29A-7706-419E-8803-E6EB0073C2A5}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="2" xr2:uid="{6A4DB29A-7706-419E-8803-E6EB0073C2A5}"/>
   </bookViews>
   <sheets>
     <sheet name="s1" sheetId="1" r:id="rId1"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>姉は料理が上手です</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>K_ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -189,10 +185,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>その公園の西に有名な学校があります。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>q02</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -314,10 +306,6 @@
   </si>
   <si>
     <t>がっこ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>にほんでは二十歳から大人です。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2024,12 +2012,222 @@
     <t>や</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>姉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>料理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>その</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>公園</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>西</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>有名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>な</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>学校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>があります。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>にほんでは</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>二十歳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>から</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>大人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>です。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2073,6 +2271,23 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2183,9 +2398,6 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2214,6 +2426,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2530,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0FA95C-FFA8-4383-B188-CE43DA553924}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2566,10 +2781,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2579,11 +2794,11 @@
       <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>40</v>
+      <c r="C3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2594,10 +2809,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>69</v>
+        <v>19</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2607,11 +2822,11 @@
       <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>228</v>
+      <c r="C5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2622,10 +2837,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>229</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2635,11 +2850,11 @@
       <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>230</v>
+      <c r="C7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2650,10 +2865,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>231</v>
+        <v>23</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2663,11 +2878,11 @@
       <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>232</v>
+      <c r="C9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2678,10 +2893,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>233</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2691,445 +2906,461 @@
       <c r="B11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="18" t="s">
+      <c r="D12" s="19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B13" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="C12" s="19" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="18" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="B30" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="18" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="18" t="s">
+      <c r="B31" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="18" t="s">
+      <c r="B32" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="18" t="s">
+      <c r="B33" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="18" t="s">
+      <c r="B34" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="18" t="s">
+      <c r="B35" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="18" t="s">
+      <c r="B36" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="18" t="s">
+      <c r="B37" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="18" t="s">
+      <c r="B38" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="18" t="s">
+      <c r="B39" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="18" t="s">
+      <c r="B40" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C38" s="23" t="s">
+      <c r="B41" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C41" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D41" s="23" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>273</v>
-      </c>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="5"/>
+      <c r="C69" s="11"/>
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="5"/>
+      <c r="C70" s="11"/>
+      <c r="D70"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="5"/>
+      <c r="C71" s="11"/>
+      <c r="D71"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA534DE6-1DB0-4A8F-B201-63B38B4DB391}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3143,363 +3374,366 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>219</v>
-      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E38" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3510,10 +3744,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C02FBB6-518E-4209-B667-2405A968CD91}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A65" sqref="A65:F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3527,1266 +3762,1267 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
         <v>56</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
         <v>62</v>
       </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
         <v>65</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>66</v>
       </c>
-      <c r="D8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
         <v>79</v>
       </c>
-      <c r="D10" t="s">
-        <v>82</v>
-      </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
         <v>90</v>
       </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" t="s">
-        <v>93</v>
-      </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
         <v>94</v>
       </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" t="s">
-        <v>97</v>
-      </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
         <v>98</v>
       </c>
-      <c r="C13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" t="s">
-        <v>101</v>
-      </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" t="s">
         <v>104</v>
       </c>
-      <c r="B15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" t="s">
-        <v>107</v>
-      </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s">
         <v>116</v>
       </c>
-      <c r="C16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" t="s">
-        <v>119</v>
-      </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" t="s">
         <v>127</v>
       </c>
-      <c r="C17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" t="s">
-        <v>130</v>
-      </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" t="s">
         <v>131</v>
       </c>
-      <c r="C18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" t="s">
-        <v>134</v>
-      </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" t="s">
         <v>135</v>
       </c>
-      <c r="C19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" t="s">
-        <v>138</v>
-      </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" t="s">
         <v>151</v>
       </c>
-      <c r="C20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" t="s">
-        <v>154</v>
-      </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" t="s">
         <v>158</v>
       </c>
-      <c r="C22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" t="s">
-        <v>161</v>
-      </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" t="s">
         <v>162</v>
       </c>
-      <c r="C23" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" t="s">
-        <v>165</v>
-      </c>
       <c r="F23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" t="s">
         <v>176</v>
       </c>
-      <c r="C24" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" t="s">
-        <v>179</v>
-      </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" t="s">
         <v>180</v>
       </c>
-      <c r="C25" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" t="s">
-        <v>183</v>
-      </c>
       <c r="F25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" t="s">
         <v>184</v>
       </c>
-      <c r="C26" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" t="s">
-        <v>186</v>
-      </c>
-      <c r="E26" t="s">
-        <v>187</v>
-      </c>
       <c r="F26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" t="s">
         <v>188</v>
       </c>
-      <c r="C27" t="s">
-        <v>189</v>
-      </c>
-      <c r="D27" t="s">
-        <v>190</v>
-      </c>
-      <c r="E27" t="s">
-        <v>191</v>
-      </c>
       <c r="F27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" t="s">
         <v>202</v>
       </c>
-      <c r="C28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D28" t="s">
-        <v>204</v>
-      </c>
-      <c r="E28" t="s">
-        <v>205</v>
-      </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" t="s">
         <v>207</v>
       </c>
-      <c r="C30" t="s">
-        <v>208</v>
-      </c>
-      <c r="D30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E30" t="s">
-        <v>210</v>
-      </c>
       <c r="F30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" t="s">
         <v>220</v>
       </c>
-      <c r="C31" t="s">
-        <v>221</v>
-      </c>
-      <c r="D31" t="s">
-        <v>222</v>
-      </c>
-      <c r="E31" t="s">
-        <v>223</v>
-      </c>
       <c r="F31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B32" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32" t="s">
         <v>224</v>
       </c>
-      <c r="C32" t="s">
-        <v>225</v>
-      </c>
-      <c r="D32" t="s">
-        <v>226</v>
-      </c>
-      <c r="E32" t="s">
-        <v>227</v>
-      </c>
       <c r="F32" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" t="s">
         <v>224</v>
       </c>
-      <c r="C33" t="s">
-        <v>225</v>
-      </c>
-      <c r="D33" t="s">
-        <v>226</v>
-      </c>
-      <c r="E33" t="s">
-        <v>227</v>
-      </c>
       <c r="F33" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" t="s">
+        <v>256</v>
+      </c>
+      <c r="E34" t="s">
         <v>257</v>
       </c>
-      <c r="C34" t="s">
-        <v>258</v>
-      </c>
-      <c r="D34" t="s">
-        <v>259</v>
-      </c>
-      <c r="E34" t="s">
-        <v>260</v>
-      </c>
       <c r="F34" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35" t="s">
+        <v>259</v>
+      </c>
+      <c r="D35" t="s">
+        <v>260</v>
+      </c>
+      <c r="E35" t="s">
         <v>261</v>
       </c>
-      <c r="C35" t="s">
-        <v>262</v>
-      </c>
-      <c r="D35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E35" t="s">
-        <v>264</v>
-      </c>
       <c r="F35" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36" t="s">
+        <v>273</v>
+      </c>
+      <c r="E36" t="s">
         <v>274</v>
       </c>
-      <c r="C36" t="s">
-        <v>275</v>
-      </c>
-      <c r="D36" t="s">
-        <v>276</v>
-      </c>
-      <c r="E36" t="s">
-        <v>277</v>
-      </c>
       <c r="F36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" t="s">
         <v>275</v>
       </c>
-      <c r="C37" t="s">
-        <v>278</v>
-      </c>
       <c r="D37" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F37" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B38" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E38" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F38" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B39" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39" t="s">
+        <v>281</v>
+      </c>
+      <c r="D39" t="s">
+        <v>282</v>
+      </c>
+      <c r="E39" t="s">
         <v>283</v>
       </c>
-      <c r="C39" t="s">
-        <v>284</v>
-      </c>
-      <c r="D39" t="s">
-        <v>285</v>
-      </c>
-      <c r="E39" t="s">
-        <v>286</v>
-      </c>
       <c r="F39" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>336</v>
-      </c>
-      <c r="B40" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" t="s">
+        <v>286</v>
+      </c>
+      <c r="E40" t="s">
         <v>287</v>
       </c>
-      <c r="C40" t="s">
-        <v>288</v>
-      </c>
-      <c r="D40" t="s">
-        <v>289</v>
-      </c>
-      <c r="E40" t="s">
-        <v>290</v>
-      </c>
       <c r="F40" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>337</v>
-      </c>
-      <c r="B41" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C41" t="s">
+        <v>289</v>
+      </c>
+      <c r="D41" t="s">
+        <v>290</v>
+      </c>
+      <c r="E41" t="s">
         <v>291</v>
       </c>
-      <c r="C41" t="s">
-        <v>292</v>
-      </c>
-      <c r="D41" t="s">
-        <v>293</v>
-      </c>
-      <c r="E41" t="s">
-        <v>294</v>
-      </c>
       <c r="F41" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>338</v>
-      </c>
-      <c r="B42" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C42" t="s">
+        <v>293</v>
+      </c>
+      <c r="D42" t="s">
+        <v>294</v>
+      </c>
+      <c r="E42" t="s">
         <v>295</v>
       </c>
-      <c r="C42" t="s">
-        <v>296</v>
-      </c>
-      <c r="D42" t="s">
-        <v>297</v>
-      </c>
-      <c r="E42" t="s">
-        <v>298</v>
-      </c>
       <c r="F42" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>339</v>
-      </c>
-      <c r="B43" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C43" t="s">
+        <v>297</v>
+      </c>
+      <c r="D43" t="s">
+        <v>298</v>
+      </c>
+      <c r="E43" t="s">
         <v>299</v>
       </c>
-      <c r="C43" t="s">
-        <v>300</v>
-      </c>
-      <c r="D43" t="s">
-        <v>301</v>
-      </c>
-      <c r="E43" t="s">
-        <v>302</v>
-      </c>
       <c r="F43" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>340</v>
-      </c>
-      <c r="B44" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C44" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44" t="s">
+        <v>302</v>
+      </c>
+      <c r="E44" t="s">
         <v>303</v>
       </c>
-      <c r="C44" t="s">
-        <v>304</v>
-      </c>
-      <c r="D44" t="s">
-        <v>305</v>
-      </c>
-      <c r="E44" t="s">
-        <v>306</v>
-      </c>
       <c r="F44" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>341</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>307</v>
+        <v>338</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>304</v>
       </c>
       <c r="C45" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D45" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E45" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F45" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>342</v>
-      </c>
-      <c r="B46" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C46" t="s">
+        <v>308</v>
+      </c>
+      <c r="D46" t="s">
+        <v>309</v>
+      </c>
+      <c r="E46" t="s">
         <v>310</v>
       </c>
-      <c r="C46" t="s">
-        <v>311</v>
-      </c>
-      <c r="D46" t="s">
-        <v>312</v>
-      </c>
-      <c r="E46" t="s">
-        <v>313</v>
-      </c>
       <c r="F46" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>343</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>314</v>
+        <v>340</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>311</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E47" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F47" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>344</v>
-      </c>
-      <c r="B48" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C48" t="s">
+        <v>315</v>
+      </c>
+      <c r="D48" t="s">
+        <v>316</v>
+      </c>
+      <c r="E48" t="s">
         <v>317</v>
       </c>
-      <c r="C48" t="s">
-        <v>318</v>
-      </c>
-      <c r="D48" t="s">
-        <v>319</v>
-      </c>
-      <c r="E48" t="s">
-        <v>320</v>
-      </c>
       <c r="F48" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>237</v>
-      </c>
-      <c r="B49" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C49" t="s">
+        <v>358</v>
+      </c>
+      <c r="D49" t="s">
+        <v>359</v>
+      </c>
+      <c r="E49" t="s">
         <v>360</v>
       </c>
-      <c r="C49" t="s">
-        <v>361</v>
-      </c>
-      <c r="D49" t="s">
-        <v>362</v>
-      </c>
-      <c r="E49" t="s">
-        <v>363</v>
-      </c>
       <c r="F49" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>238</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>360</v>
+        <v>235</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>357</v>
       </c>
       <c r="C50" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D50" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E50" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F50" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>244</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>365</v>
+        <v>241</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="C51" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D51" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E51" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F51" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>245</v>
-      </c>
-      <c r="B52" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="C52" t="s">
+        <v>366</v>
+      </c>
+      <c r="D52" t="s">
+        <v>367</v>
+      </c>
+      <c r="E52" t="s">
         <v>368</v>
       </c>
-      <c r="C52" t="s">
-        <v>369</v>
-      </c>
-      <c r="D52" t="s">
-        <v>370</v>
-      </c>
-      <c r="E52" t="s">
-        <v>371</v>
-      </c>
       <c r="F52" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>246</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>365</v>
+        <v>243</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="C53" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D53" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E53" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F53" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>247</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>374</v>
+        <v>244</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>371</v>
       </c>
       <c r="C54" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D54" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E54" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F54" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>248</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>372</v>
+        <v>245</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>369</v>
       </c>
       <c r="C55" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D55" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E55" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F55" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>249</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>378</v>
+        <v>246</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>375</v>
       </c>
       <c r="C56" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D56" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E56" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F56" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>250</v>
-      </c>
-      <c r="B57" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C57" t="s">
+        <v>379</v>
+      </c>
+      <c r="D57" t="s">
+        <v>380</v>
+      </c>
+      <c r="E57" t="s">
         <v>381</v>
       </c>
-      <c r="C57" t="s">
-        <v>382</v>
-      </c>
-      <c r="D57" t="s">
-        <v>383</v>
-      </c>
-      <c r="E57" t="s">
-        <v>384</v>
-      </c>
       <c r="F57" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>251</v>
-      </c>
-      <c r="B58" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="C58" t="s">
+        <v>383</v>
+      </c>
+      <c r="D58" t="s">
+        <v>384</v>
+      </c>
+      <c r="E58" t="s">
         <v>385</v>
       </c>
-      <c r="C58" t="s">
-        <v>386</v>
-      </c>
-      <c r="D58" t="s">
-        <v>387</v>
-      </c>
-      <c r="E58" t="s">
-        <v>388</v>
-      </c>
       <c r="F58" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>252</v>
-      </c>
-      <c r="B59" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="C59" t="s">
+        <v>387</v>
+      </c>
+      <c r="D59" t="s">
+        <v>388</v>
+      </c>
+      <c r="E59" t="s">
         <v>389</v>
       </c>
-      <c r="C59" t="s">
-        <v>390</v>
-      </c>
-      <c r="D59" t="s">
-        <v>391</v>
-      </c>
-      <c r="E59" t="s">
-        <v>392</v>
-      </c>
       <c r="F59" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>253</v>
-      </c>
-      <c r="B60" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="C60" t="s">
+        <v>391</v>
+      </c>
+      <c r="D60" t="s">
+        <v>392</v>
+      </c>
+      <c r="E60" t="s">
         <v>393</v>
       </c>
-      <c r="C60" t="s">
-        <v>394</v>
-      </c>
-      <c r="D60" t="s">
-        <v>395</v>
-      </c>
-      <c r="E60" t="s">
-        <v>396</v>
-      </c>
       <c r="F60" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>254</v>
-      </c>
-      <c r="B61" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="C61" t="s">
+        <v>395</v>
+      </c>
+      <c r="D61" t="s">
+        <v>396</v>
+      </c>
+      <c r="E61" t="s">
         <v>397</v>
       </c>
-      <c r="C61" t="s">
-        <v>398</v>
-      </c>
-      <c r="D61" t="s">
-        <v>399</v>
-      </c>
-      <c r="E61" t="s">
-        <v>400</v>
-      </c>
       <c r="F61" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>255</v>
-      </c>
-      <c r="B62" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="C62" t="s">
+        <v>399</v>
+      </c>
+      <c r="D62" t="s">
+        <v>400</v>
+      </c>
+      <c r="E62" t="s">
         <v>401</v>
       </c>
-      <c r="C62" t="s">
-        <v>402</v>
-      </c>
-      <c r="D62" t="s">
-        <v>403</v>
-      </c>
-      <c r="E62" t="s">
-        <v>404</v>
-      </c>
       <c r="F62" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>256</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>405</v>
+        <v>253</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>402</v>
       </c>
       <c r="C63" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D63" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E63" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F63" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/python/N4_test.xlsx
+++ b/python/N4_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2210350\Documents\3tpan\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2210314\Documents\3tpan\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D09756-4B38-4DC6-BDAE-EFE3D06EE1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F620328A-9A75-4319-A138-B880E0AA40D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="2" xr2:uid="{6A4DB29A-7706-419E-8803-E6EB0073C2A5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A4DB29A-7706-419E-8803-E6EB0073C2A5}"/>
   </bookViews>
   <sheets>
     <sheet name="s1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="411">
   <si>
     <t>QUIZ</t>
     <phoneticPr fontId="1"/>
@@ -2220,6 +2220,14 @@
       </rPr>
       <t>です。</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEVER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2747,7 +2755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0FA95C-FFA8-4383-B188-CE43DA553924}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
@@ -3357,383 +3365,482 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA534DE6-1DB0-4A8F-B201-63B38B4DB391}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" style="5"/>
-    <col min="3" max="3" width="8.6640625" style="4"/>
+    <col min="2" max="3" width="8.6640625" style="5"/>
+    <col min="4" max="4" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E38" s="4"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F38" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3745,1278 +3852,1467 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C02FBB6-518E-4209-B667-2405A968CD91}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:F89"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>55</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>56</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>60</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>61</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>62</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>65</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>66</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>73</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>74</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>75</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>77</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>76</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>79</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>78</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
         <v>81</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>87</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>88</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>89</v>
-      </c>
-      <c r="E11" t="s">
-        <v>90</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
         <v>82</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>91</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>92</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>93</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>94</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>95</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>96</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>98</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>97</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
         <v>100</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>107</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>108</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>53</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>109</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>101</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>110</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>111</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>104</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>112</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>102</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>113</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>114</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>115</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>116</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>117</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>124</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>125</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>126</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
       </c>
       <c r="F17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
         <v>118</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>128</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>129</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>130</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>131</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
         <v>119</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>132</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>133</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>134</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>135</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>137</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>148</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>149</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>150</v>
-      </c>
-      <c r="E20" t="s">
-        <v>151</v>
       </c>
       <c r="F20" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
         <v>138</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>142</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>152</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>153</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>154</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
         <v>139</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>155</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>156</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>157</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>158</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
         <v>144</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>159</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>160</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>161</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>162</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
         <v>164</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>173</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>174</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>175</v>
-      </c>
-      <c r="E24" t="s">
-        <v>176</v>
       </c>
       <c r="F24" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
         <v>165</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>177</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>178</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>179</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>180</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
         <v>167</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>181</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>182</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>183</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>184</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
         <v>168</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>185</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>186</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>187</v>
-      </c>
-      <c r="E27" t="s">
-        <v>188</v>
       </c>
       <c r="F27" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
         <v>191</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>199</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>200</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>201</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>202</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
         <v>192</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>130</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>129</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>128</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>203</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
         <v>194</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>204</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>205</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>206</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>207</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
         <v>209</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>217</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>218</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>219</v>
-      </c>
-      <c r="E31" t="s">
-        <v>220</v>
       </c>
       <c r="F31" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
         <v>210</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>221</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>222</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>223</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>224</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
         <v>212</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>221</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>222</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>223</v>
-      </c>
-      <c r="E33" t="s">
-        <v>224</v>
       </c>
       <c r="F33" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G33" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
         <v>327</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>254</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>255</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>256</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>257</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
         <v>328</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>258</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>259</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>260</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>261</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
         <v>329</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>271</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>272</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>273</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>274</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
         <v>330</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>272</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>275</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>224</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>276</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
         <v>331</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>277</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>115</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>278</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>279</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
         <v>332</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>280</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>281</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>282</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>283</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
         <v>333</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="C40" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>285</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>286</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>287</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
         <v>334</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="C41" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>289</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>290</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>291</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
         <v>335</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="C42" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>293</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>294</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>295</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
         <v>336</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="C43" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>297</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>298</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>299</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
         <v>337</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="C44" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>301</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>302</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>303</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
         <v>338</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="C45" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>305</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>306</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>291</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
         <v>339</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="C46" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>308</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>309</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>310</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
         <v>340</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="C47" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>96</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>312</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>313</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
         <v>341</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="C48" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>315</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>316</v>
-      </c>
-      <c r="E48" t="s">
-        <v>317</v>
       </c>
       <c r="F48" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G48" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
         <v>234</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="C49" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>358</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>359</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>360</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
         <v>235</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="C50" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>361</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>359</v>
-      </c>
-      <c r="E50" t="s">
-        <v>358</v>
       </c>
       <c r="F50" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
         <v>241</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="C51" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>363</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>364</v>
-      </c>
-      <c r="E51" t="s">
-        <v>358</v>
       </c>
       <c r="F51" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G51" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
         <v>242</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="C52" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>366</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>367</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>368</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
         <v>243</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="C53" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>358</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>369</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>370</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
         <v>244</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="C54" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>372</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>357</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>359</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
         <v>245</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="C55" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>373</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>370</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>374</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
         <v>246</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="C56" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>366</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>376</v>
-      </c>
-      <c r="E56" t="s">
-        <v>377</v>
       </c>
       <c r="F56" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G56" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
         <v>247</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="C57" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>379</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>380</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>381</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
         <v>248</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="C58" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>383</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>384</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>385</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
         <v>249</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="C59" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>387</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>388</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>389</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
         <v>250</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="C60" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>391</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>392</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>393</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
         <v>251</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="C61" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>395</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>396</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>397</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
         <v>252</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="C62" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>399</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>400</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>401</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
         <v>253</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="C63" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>403</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>323</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>404</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>403</v>
       </c>
     </row>
